--- a/SAULink9_PartList_ATPI.xlsx
+++ b/SAULink9_PartList_ATPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Eigene Dateien\HAM\DIY\SAULink9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAM\DIY\SVXLink\SAULink9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8AF9F1-72D3-4679-AC27-D2B54EED3AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95086701-90CD-44C6-B6DE-06F9FDDB3410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="17640" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{323B2ECF-0824-4216-B6CD-CF298D8265A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Front Panel</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Parts for ATPI from LCSC</t>
+  </si>
+  <si>
+    <t>D-Sub Kabel Ende offen 1m</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B07TYN693Y/ref=ox_sc_act_title_1?smid=A3JWKAKR8XB7XF&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -279,8 +285,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F289346-AD84-47FC-8861-EA845A807292}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,168 +736,179 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4">
-        <v>0.67</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
-        <v>1.41</v>
+        <v>0.67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
-        <v>7</v>
+        <v>1.41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>38.22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4">
-        <v>1.21</v>
+        <v>38.22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4">
-        <v>0.23</v>
+        <v>1.21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>1.1599999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.05</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>6</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
-        <f>SUM(B2:B24)</f>
-        <v>109.63</v>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <f>SUM(B2:B25)</f>
+        <v>115.63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C14774D0-D90A-47B5-BB4F-2C89DCD2C42C}"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://de.aliexpress.com/item/1005005555653710.html?spm=a2g0o.cart.0.0.3ed84ae4k0xhkm&amp;mp=1&amp;pdp_npi=5%40dis%21EUR%21EUR%202.16%21EUR%202.05%21%21EUR%202.05%21%21%21%4021038da617588755965855910eb16f%2112000033528071194%21ct%21AT%21709211988%21%215%210&amp;gatewayAdapt=glo2deu" xr:uid="{9B8C7BEB-7E6B-43F2-8A02-F07811C2BF6E}"/>
+    <hyperlink ref="C14" r:id="rId2" display="https://de.aliexpress.com/item/1005005555653710.html?spm=a2g0o.cart.0.0.3ed84ae4k0xhkm&amp;mp=1&amp;pdp_npi=5%40dis%21EUR%21EUR%202.16%21EUR%202.05%21%21EUR%202.05%21%21%21%4021038da617588755965855910eb16f%2112000033528071194%21ct%21AT%21709211988%21%215%210&amp;gatewayAdapt=glo2deu" xr:uid="{9B8C7BEB-7E6B-43F2-8A02-F07811C2BF6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
